--- a/data/시간표 분석.xlsx
+++ b/data/시간표 분석.xlsx
@@ -429,7 +429,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>경제</t>
+          <t>일반물리학실험I</t>
         </is>
       </c>
     </row>
@@ -444,182 +444,62 @@
           <t>2반</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3반</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4반</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5반</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6반</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>김도이</t>
+          <t>김준현</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>강산원</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>김동민</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>강태경</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>강진필</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>공민준</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>김성현</t>
+          <t>류현승</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>김세현</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>김민경</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>강현아</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>김지유</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>권서겸</t>
+          <t>강태경</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>김승현</t>
+          <t>박민규</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>김지원</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>김준현</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>김도경</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>백찬빈</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>김도형</t>
+          <t>공민준</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>박재윤</t>
+          <t>박부승</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>김찬울</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>류현승</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>김의준</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>설채환</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>김세민</t>
+          <t>김동민</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>송재호</t>
+          <t>박진성</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>김채훈</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>문재환</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>박정욱</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>안가윤</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
         <is>
           <t>김승준</t>
         </is>
@@ -628,30 +508,10 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>신승원</t>
+          <t>박채웅</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>남은우</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>박부승</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>서진현</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>여수아</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>김영현</t>
         </is>
@@ -660,222 +520,82 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>오름</t>
+          <t>설채환</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>박민권</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>박진재</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>양재욱</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>우지원</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>김윤중</t>
+          <t>김지원</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>오정준</t>
+          <t>이석인</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>박민규</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>손승현</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>엄채영</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>이석인</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>박지성</t>
+          <t>문재환</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>이서준</t>
+          <t>이준영</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>오동현</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>이연우</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>유지원</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>이은재</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>박진성</t>
+          <t>성세경</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>이종영</t>
+          <t>정건</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>윤호성</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>이준영</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>이예령</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>정현우</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>박채웅</t>
+          <t>손승현</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>이지후</t>
+          <t>정석원</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>정석원</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>이하은</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>이정우</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>정현진</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>성세경</t>
+          <t>신승원</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>이찬욱</t>
+          <t>정현진</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>정소원</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>이형우</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>임유빈</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>최은성</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>오종건</t>
+          <t>이연우</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>임서진</t>
+          <t>주영진</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>정지원</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>임종원</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>전건우</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>추요한</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
         <is>
           <t>이원석</t>
         </is>
@@ -884,4211 +604,4351 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>임휘주</t>
+          <t>채병현</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>채병현</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>임채민</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>정선우</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>홍다윤</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>조민선</t>
+          <t>이정우</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>정건</t>
+          <t>추요한</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>최무혁</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>최성민</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>최대규</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>주영진</t>
+          <t>조민선</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>최은우</t>
+          <t>홍다윤</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>최수혁</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>홍석우</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>황석희</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>홍윤민</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>최희준</t>
+          <t>최은성</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>한국의전통과학</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>영어회화II</t>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1반</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2반</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3반</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1반</t>
+          <t>강진필</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2반</t>
+          <t>강산원</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3반</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4반</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>5반</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6반</t>
+          <t>공민준</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>강태경</t>
+          <t>김도이</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>강진필</t>
+          <t>권서겸</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>김영현</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>김도이</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>권서겸</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>강산원</t>
+          <t>김도형</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>김세현</t>
+          <t>송재호</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>강현아</t>
+          <t>김동민</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>김준현</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>김도형</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>김도경</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>공민준</t>
+          <t>김윤중</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>김윤중</t>
+          <t>신승원</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>김동민</t>
+          <t>김지원</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>박부승</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>김승준</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>김민경</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>김성현</t>
+          <t>박지성</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>박채웅</t>
+          <t>오정준</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>김세민</t>
+          <t>박재윤</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>오정준</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>남은우</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>김의준</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>류현승</t>
+          <t>안가윤</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>오종건</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>성세경</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>김승현</t>
-        </is>
-      </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>우지원</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>문재환</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>김채훈</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>박민권</t>
+          <t>여수아</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>손승현</t>
+          <t>우지원</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>김지원</t>
+          <t>오름</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>이서준</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>박정욱</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>박민규</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>박지성</t>
+          <t>윤호성</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>양재욱</t>
+          <t>이정우</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>김지유</t>
+          <t>이석인</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>이연우</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>박진성</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>오동현</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>박진재</t>
+          <t>이지후</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>임유빈</t>
+          <t>홍다윤</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>김찬울</t>
+          <t>이종영</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>이예령</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>서진현</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>오종건</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>백찬빈</t>
+          <t>임서진</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>전건우</t>
+          <t>홍윤민</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>박재윤</t>
+          <t>정현우</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>이형우</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>신승원</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>이석인</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>설채환</t>
+          <t>정현진</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>정소원</t>
-        </is>
-      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>윤호성</t>
+          <t>최희준</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>정건</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>안가윤</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>이지후</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>송재호</t>
+          <t>조민선</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>정지원</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>이은재</t>
-        </is>
-      </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>정현우</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>엄채영</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>임서진</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>이정우</t>
+          <t>최은우</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>최대규</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>이준영</t>
-        </is>
-      </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>정현진</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>여수아</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>임종원</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>이하은</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>최무혁</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>이찬욱</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>최성민</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>오름</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>임휘주</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>정석원</t>
+          <t>홍석우</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>임채민</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>최은성</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>유지원</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>정선우</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>주영진</t>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>영어회화II</t>
         </is>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1반</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>조민선</t>
+          <t>2반</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>홍다윤</t>
+          <t>3반</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>이원석</t>
+          <t>4반</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>최은우</t>
+          <t>5반</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>최수혁</t>
+          <t>6반</t>
         </is>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>강태경</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>채병현</t>
+          <t>강진필</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>홍윤민</t>
+          <t>김영현</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>이종영</t>
+          <t>김도이</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>홍석우</t>
+          <t>권서겸</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>최희준</t>
+          <t>강산원</t>
         </is>
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>김세현</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>황석희</t>
+          <t>강현아</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>김준현</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>김도형</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>김도경</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>추요한</t>
+          <t>공민준</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>김윤중</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>김동민</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>박부승</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>김승준</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>김민경</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>김성현</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>고급영작문</t>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>박채웅</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>김세민</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>오정준</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>남은우</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>김의준</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>류현승</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1반</t>
+          <t>성세경</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2반</t>
+          <t>김승현</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3반</t>
+          <t>우지원</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4반</t>
+          <t>문재환</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5반</t>
+          <t>김채훈</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>6반</t>
+          <t>박민권</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>강태경</t>
+          <t>손승현</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>김도이</t>
+          <t>김지원</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>김승현</t>
+          <t>이서준</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>권서겸</t>
+          <t>박정욱</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>강산원</t>
+          <t>박민규</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>강현아</t>
+          <t>박지성</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>김세현</t>
+          <t>양재욱</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>김동민</t>
+          <t>김지유</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>김윤중</t>
+          <t>이연우</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>김도경</t>
+          <t>박진성</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>강진필</t>
+          <t>오동현</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>공민준</t>
+          <t>박진재</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>김영현</t>
+          <t>임유빈</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>김민경</t>
+          <t>김찬울</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>김찬울</t>
+          <t>이예령</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>김승준</t>
+          <t>서진현</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>김성현</t>
+          <t>오종건</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>김도형</t>
+          <t>백찬빈</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>남은우</t>
+          <t>전건우</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>김의준</t>
+          <t>박재윤</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>류현승</t>
+          <t>이형우</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>김준현</t>
+          <t>신승원</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>김지유</t>
+          <t>이석인</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>김세민</t>
+          <t>설채환</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>박민권</t>
+          <t>정소원</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>김지원</t>
+          <t>윤호성</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>박재윤</t>
+          <t>정건</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>문재환</t>
+          <t>안가윤</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>박정욱</t>
+          <t>이지후</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>김채훈</t>
+          <t>송재호</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>손승현</t>
+          <t>정지원</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>박민규</t>
+          <t>이은재</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>박채웅</t>
+          <t>정현우</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>박부승</t>
+          <t>엄채영</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>박진재</t>
+          <t>임서진</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>박지성</t>
+          <t>이정우</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>오름</t>
+          <t>최대규</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>성세경</t>
+          <t>이준영</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>설채환</t>
+          <t>정현진</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>박진성</t>
+          <t>여수아</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>백찬빈</t>
+          <t>임종원</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>우지원</t>
+          <t>이하은</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>최무혁</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>이찬욱</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>최성민</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>오름</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>임휘주</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>정석원</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>임채민</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>최은성</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>유지원</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>송재호</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>양재욱</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>신승원</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>서진현</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>이정우</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>이연우</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>오종건</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>이서준</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>엄채영</t>
-        </is>
-      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>안가윤</t>
+          <t>정선우</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>주영진</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>조민선</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>홍다윤</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>이원석</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>최은우</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>최수혁</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>채병현</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>홍윤민</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>이종영</t>
         </is>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>이하은</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>이석인</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>이예령</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>오동현</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>여수아</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>조민선</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>이형우</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>이원석</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>이은재</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>윤호성</t>
-        </is>
-      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>오정준</t>
+          <t>홍석우</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>최희준</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
           <t>황석희</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>임휘주</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>이지후</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>이준영</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>임서진</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>임유빈</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>정소원</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>임종원</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>이찬욱</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>임채민</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>정선우</t>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>추요한</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>정지원</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>정현진</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>전건우</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>정건</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>최무혁</t>
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>프로그래밍과문제해결</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>채병현</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>최은우</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>정현우</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>정석원</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>최은성</t>
+          <t>1반</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>최성민</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>최희준</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>최대규</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>주영진</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>홍석우</t>
+          <t>강산원</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>최수혁</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>홍다윤</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>추요한</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>홍윤민</t>
+          <t>강현아</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>김민경</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>일반물리학I</t>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>김성현</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1반</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2반</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>3반</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>4반</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>5반</t>
+          <t>김찬울</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>김세민</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>김영현</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>강태경</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>김동민</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>강산원</t>
+          <t>류현승</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>김승준</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>김준현</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>김성현</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>김세현</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>공민준</t>
+          <t>박부승</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>김의준</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>류현승</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>박채웅</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>김찬울</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>김도형</t>
+          <t>박진재</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>박정욱</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>문재환</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>설채환</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>박부승</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>김승현</t>
+          <t>서진현</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>엄채영</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>박재윤</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>우지원</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>손승현</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>김지원</t>
+          <t>양재욱</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>이서준</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>박진성</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>이정우</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>신승원</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>남은우</t>
+          <t>오정준</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>이석인</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>박진재</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>이준영</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>윤호성</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>박민규</t>
+          <t>최무혁</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>이은재</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>안가윤</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>임채민</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>정석원</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>성세경</t>
+          <t>최희준</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>이종영</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>오정준</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>전건우</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>정소원</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>양재욱</t>
+          <t>추요한</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>주영진</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>이연우</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>정건</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>정지원</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>유지원</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>이하은</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>최은성</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>정현우</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>이원석</t>
+          <t>홍윤민</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>임휘주</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>추요한</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>정현진</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>채병현</t>
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>시문학강독</t>
         </is>
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1반</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>조민선</t>
+          <t>2반</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>홍윤민</t>
+          <t>3반</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>최무혁</t>
+          <t>4반</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>최수혁</t>
+          <t>5반</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6반</t>
         </is>
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>권서겸</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>최대규</t>
+          <t>강산원</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>김성현</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>홍다윤</t>
+          <t>강현아</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>최희준</t>
+          <t>강태경</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>김승현</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>박진재</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>강진필</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>김찬울</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>김도경</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>김민경</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>김준현</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>미술창작</t>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>오동현</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>김도이</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>김채훈</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>김도형</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>김세현</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>김지원</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1반</t>
+          <t>오정준</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2반</t>
+          <t>김지유</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>3반</t>
+          <t>박민권</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>4반</t>
+          <t>김동민</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>5반</t>
+          <t>김영현</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>6반</t>
+          <t>박민규</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>강산원</t>
+          <t>이연우</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>강현아</t>
+          <t>남은우</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>강진필</t>
+          <t>박진성</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>김동민</t>
+          <t>김세민</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>김도이</t>
+          <t>김윤중</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>공민준</t>
+          <t>박재윤</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>강태경</t>
+          <t>이지후</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>김도경</t>
+          <t>양재욱</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>김민경</t>
+          <t>박채웅</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>김성현</t>
+          <t>김의준</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>박부승</t>
+          <t>류현승</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>권서겸</t>
+          <t>백찬빈</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>김도형</t>
+          <t>임종원</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>김세현</t>
+          <t>엄채영</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>김윤중</t>
+          <t>안가윤</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>김세민</t>
+          <t>박정욱</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>박지성</t>
+          <t>문재환</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>김승준</t>
+          <t>송재호</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>김영현</t>
+          <t>임채민</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>김의준</t>
+          <t>여수아</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>김지유</t>
+          <t>윤호성</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>김준현</t>
+          <t>성세경</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>송재호</t>
+          <t>박부승</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>김승현</t>
+          <t>이예령</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>남은우</t>
+          <t>정건</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>박진성</t>
+          <t>오름</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>백찬빈</t>
+          <t>임서진</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>김지원</t>
+          <t>손승현</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>양재욱</t>
+          <t>박지성</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>김찬울</t>
+          <t>이원석</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>류현승</t>
+          <t>정선우</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>박진재</t>
+          <t>우지원</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>임휘주</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>신승원</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>설채환</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>김채훈</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>엄채영</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>박민권</t>
+          <t>이정우</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>문재환</t>
+          <t>최성민</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>박채웅</t>
+          <t>이서준</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>오동현</t>
+          <t>정현진</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>박재윤</t>
+          <t>오종건</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>여수아</t>
+          <t>정석원</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>박민규</t>
+          <t>이준영</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>박정욱</t>
+          <t>최은우</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>성세경</t>
+          <t>이은재</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>우지원</t>
+          <t>조민선</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>손승현</t>
+          <t>유지원</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>이서준</t>
+          <t>정소원</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>오름</t>
+          <t>이찬욱</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>서진현</t>
+          <t>홍석우</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>안가윤</t>
+          <t>이종영</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>이은재</t>
+          <t>최무혁</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>신승원</t>
+          <t>이석인</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>이원석</t>
+          <t>정지원</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>이정우</t>
+          <t>전건우</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>오정준</t>
+          <t>홍윤민</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>오종건</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>이지후</t>
+          <t>채병현</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>윤호성</t>
+          <t>임유빈</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>이종영</t>
+          <t>최수혁</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>이하은</t>
+          <t>정현우</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>유지원</t>
-        </is>
-      </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>이예령</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
           <t>최은성</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>이연우</t>
+          <t>황석희</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>이찬욱</t>
+          <t>최희준</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>전건우</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>이석인</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>임유빈</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>이준영</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>이형우</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>정석원</t>
+          <t>최대규</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>임채민</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>정건</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>임종원</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>임서진</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>정소원</t>
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>고급영작문</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>임휘주</t>
+          <t>1반</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>주영진</t>
+          <t>2반</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>3반</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>정선우</t>
+          <t>4반</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>정현우</t>
+          <t>5반</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>정지원</t>
+          <t>6반</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>채병현</t>
+          <t>강태경</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>최은우</t>
+          <t>김도이</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>김승현</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>최무혁</t>
+          <t>권서겸</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>정현진</t>
+          <t>강산원</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>조민선</t>
+          <t>강현아</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>최희준</t>
+          <t>김세현</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>홍다윤</t>
+          <t>김동민</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>김윤중</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>최수혁</t>
+          <t>김도경</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>최성민</t>
+          <t>강진필</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>최대규</t>
+          <t>공민준</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>추요한</t>
+          <t>김영현</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>홍윤민</t>
+          <t>김민경</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>김찬울</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>황석희</t>
+          <t>김승준</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>홍석우</t>
+          <t>김성현</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>김도형</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>남은우</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>김의준</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>류현승</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>김준현</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>김지유</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>김세민</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>체육IV</t>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>박민권</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>김지원</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>박재윤</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>문재환</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>박정욱</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>김채훈</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1반</t>
+          <t>손승현</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2반</t>
+          <t>박민규</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3반</t>
+          <t>박채웅</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>4반</t>
+          <t>박부승</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>5반</t>
+          <t>박진재</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>6반</t>
+          <t>박지성</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>강현아</t>
+          <t>오름</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>공민준</t>
+          <t>성세경</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>강진필</t>
+          <t>설채환</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>강산원</t>
+          <t>박진성</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>김동민</t>
+          <t>백찬빈</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>김도형</t>
+          <t>우지원</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>김도경</t>
+          <t>유지원</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>김도이</t>
+          <t>송재호</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>권서겸</t>
+          <t>양재욱</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>강태경</t>
+          <t>신승원</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>김세민</t>
+          <t>서진현</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>김영현</t>
+          <t>이정우</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>박민권</t>
+          <t>이연우</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>박부승</t>
+          <t>오종건</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>김민경</t>
+          <t>이서준</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>김성현</t>
+          <t>엄채영</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>김준현</t>
+          <t>안가윤</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>김의준</t>
+          <t>이종영</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>박지성</t>
+          <t>이하은</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>서진현</t>
+          <t>이석인</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>김승준</t>
+          <t>이예령</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>김세현</t>
+          <t>오동현</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>김찬울</t>
+          <t>여수아</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>류현승</t>
+          <t>조민선</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>박진성</t>
+          <t>이형우</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>양재욱</t>
+          <t>이원석</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>김승현</t>
+          <t>이은재</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>김지원</t>
+          <t>윤호성</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>박정욱</t>
+          <t>오정준</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>문재환</t>
+          <t>황석희</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>여수아</t>
+          <t>임휘주</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>엄채영</t>
+          <t>이지후</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>김윤중</t>
+          <t>이준영</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>김채훈</t>
+          <t>임서진</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>손승현</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>박민규</t>
+          <t>임유빈</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>오동현</t>
+          <t>정소원</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>이서준</t>
+          <t>임종원</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>김지유</t>
+          <t>이찬욱</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>남은우</t>
+          <t>임채민</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>신승원</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>성세경</t>
+          <t>정선우</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>오정준</t>
+          <t>정지원</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>이종영</t>
+          <t>정현진</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>백찬빈</t>
+          <t>전건우</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>박재윤</t>
+          <t>정건</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>이석인</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>송재호</t>
+          <t>최무혁</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>오종건</t>
+          <t>채병현</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>이형우</t>
+          <t>최은우</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>오름</t>
+          <t>정현우</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>박진재</t>
+          <t>정석원</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>이연우</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>우지원</t>
+          <t>최은성</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>이찬욱</t>
+          <t>최성민</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>임서진</t>
+          <t>최희준</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>이은재</t>
+          <t>최대규</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>박채웅</t>
+          <t>주영진</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>이예령</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>유지원</t>
+          <t>홍석우</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>임유빈</t>
+          <t>최수혁</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>정선우</t>
+          <t>홍다윤</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>이지후</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>설채환</t>
+          <t>추요한</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>이정우</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>이원석</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>정건</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>정현우</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>최은우</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>안가윤</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>이하은</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>전건우</t>
+          <t>홍윤민</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>정석원</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>정현진</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>홍다윤</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>윤호성</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>임채민</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>최수혁</t>
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>미술창작</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>정소원</t>
+          <t>1반</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>주영진</t>
+          <t>2반</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>3반</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>이준영</t>
+          <t>4반</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>조민선</t>
+          <t>5반</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>최은성</t>
+          <t>6반</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>정지원</t>
+          <t>강산원</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>최성민</t>
+          <t>강현아</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>강진필</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>임종원</t>
+          <t>김동민</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>최대규</t>
+          <t>김도이</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>최희준</t>
+          <t>공민준</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>채병현</t>
+          <t>강태경</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>김도경</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>김민경</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>임휘주</t>
+          <t>김성현</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>황석희</t>
+          <t>박부승</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>추요한</t>
+          <t>권서겸</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>홍석우</t>
+          <t>김도형</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>김세현</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>김윤중</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>최무혁</t>
+          <t>김세민</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>박지성</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>홍윤민</t>
+          <t>김승준</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>김영현</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>김의준</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>김지유</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>김준현</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>송재호</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>김승현</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
-        <is>
-          <t>미적분학I</t>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>남은우</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>박진성</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>백찬빈</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>김지원</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>양재욱</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>김찬울</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1반</t>
+          <t>류현승</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2반</t>
+          <t>박진재</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3반</t>
+          <t>설채환</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4반</t>
+          <t>김채훈</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>5반</t>
+          <t>엄채영</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>6반</t>
+          <t>박민권</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>권서겸</t>
+          <t>문재환</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>김승준</t>
+          <t>박채웅</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>공민준</t>
+          <t>오동현</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>강산원</t>
+          <t>박재윤</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>강태경</t>
+          <t>여수아</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>강현아</t>
+          <t>박민규</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>김도형</t>
+          <t>박정욱</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>김승현</t>
+          <t>성세경</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>김동민</t>
+          <t>우지원</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>강진필</t>
+          <t>손승현</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>김도이</t>
+          <t>이서준</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>김성현</t>
+          <t>오름</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>김세민</t>
+          <t>서진현</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>박민권</t>
+          <t>안가윤</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>김민경</t>
+          <t>이은재</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>김도경</t>
+          <t>신승원</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>김영현</t>
+          <t>이원석</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>김세현</t>
+          <t>이정우</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>김준현</t>
+          <t>오정준</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>박재윤</t>
+          <t>오종건</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>김지원</t>
+          <t>이지후</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>김지유</t>
+          <t>윤호성</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>김윤중</t>
+          <t>이종영</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>박부승</t>
+          <t>이하은</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>김채훈</t>
+          <t>유지원</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>박지성</t>
+          <t>이예령</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>김찬울</t>
+          <t>최은성</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>남은우</t>
+          <t>이연우</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>김의준</t>
+          <t>이찬욱</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>박진재</t>
+          <t>전건우</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>박민규</t>
+          <t>이석인</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>손승현</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>오름</t>
+          <t>임유빈</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>성세경</t>
+          <t>이준영</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>류현승</t>
+          <t>이형우</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>오정준</t>
+          <t>정석원</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>박정욱</t>
+          <t>임채민</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>송재호</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>이종영</t>
+          <t>정건</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>안가윤</t>
+          <t>임종원</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>문재환</t>
+          <t>임서진</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>우지원</t>
+          <t>정소원</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>유지원</t>
+          <t>임휘주</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>신승원</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>이지후</t>
+          <t>주영진</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>양재욱</t>
+          <t>정선우</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>박진성</t>
+          <t>정현우</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>윤호성</t>
+          <t>정지원</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>이석인</t>
+          <t>채병현</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>오동현</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
+          <t>최은우</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>최무혁</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>정현진</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
         <is>
           <t>조민선</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>엄채영</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>박채웅</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>정건</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>이준영</t>
+          <t>최희준</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>이연우</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>최은우</t>
+          <t>홍다윤</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>여수아</t>
+          <t>최수혁</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>백찬빈</t>
+          <t>최성민</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>정석원</t>
+          <t>최대규</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>임채민</t>
+          <t>추요한</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>이정우</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>최희준</t>
+          <t>홍윤민</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>오종건</t>
+          <t>황석희</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>서진현</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>정소원</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>전건우</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>이찬욱</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>황석희</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>이예령</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>설채환</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>정지원</t>
+          <t>홍석우</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>정선우</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>이하은</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>이원석</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>이서준</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>정현진</t>
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>미적분학I</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>정현우</t>
+          <t>1반</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>이형우</t>
+          <t>2반</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>3반</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>이은재</t>
+          <t>4반</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>임휘주</t>
+          <t>5반</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>최무혁</t>
+          <t>6반</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>최대규</t>
+          <t>권서겸</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>임서진</t>
+          <t>김승준</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>공민준</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>임유빈</t>
+          <t>강산원</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>주영진</t>
+          <t>강태경</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>홍다윤</t>
+          <t>강현아</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>최성민</t>
+          <t>김도형</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>임종원</t>
+          <t>김승현</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>김동민</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>채병현</t>
+          <t>강진필</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>최은성</t>
+          <t>김도이</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>홍윤민</t>
+          <t>김성현</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>홍석우</t>
+          <t>김세민</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>최수혁</t>
+          <t>박민권</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>김민경</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>김도경</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>추요한</t>
+          <t>김영현</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>김세현</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>김준현</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>박재윤</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>김지원</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>김지유</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>김윤중</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>박부승</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>시문학강독</t>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>김채훈</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>박지성</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>김찬울</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>남은우</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>김의준</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>박진재</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1반</t>
+          <t>박민규</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2반</t>
+          <t>손승현</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>3반</t>
+          <t>오름</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>4반</t>
+          <t>성세경</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>5반</t>
+          <t>류현승</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>6반</t>
+          <t>오정준</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>권서겸</t>
+          <t>박정욱</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>강산원</t>
+          <t>송재호</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>김성현</t>
+          <t>이종영</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>강현아</t>
+          <t>안가윤</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>강태경</t>
+          <t>문재환</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>김승현</t>
+          <t>우지원</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>박진재</t>
+          <t>유지원</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>강진필</t>
+          <t>신승원</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>김찬울</t>
+          <t>이지후</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>김도경</t>
+          <t>양재욱</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>김민경</t>
+          <t>박진성</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>김준현</t>
+          <t>윤호성</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
+          <t>이석인</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
           <t>오동현</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>김도이</t>
-        </is>
-      </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>김채훈</t>
+          <t>조민선</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>김도형</t>
+          <t>엄채영</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>김세현</t>
+          <t>박채웅</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>김지원</t>
+          <t>정건</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>오정준</t>
+          <t>이준영</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>김지유</t>
+          <t>이연우</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>박민권</t>
+          <t>최은우</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>김동민</t>
+          <t>여수아</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>김영현</t>
+          <t>백찬빈</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>박민규</t>
+          <t>정석원</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>이연우</t>
+          <t>임채민</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>남은우</t>
+          <t>이정우</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>박진성</t>
+          <t>최희준</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>김세민</t>
+          <t>오종건</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>김윤중</t>
+          <t>서진현</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>박재윤</t>
+          <t>정소원</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>이지후</t>
+          <t>전건우</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>양재욱</t>
+          <t>이찬욱</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>박채웅</t>
+          <t>황석희</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>김의준</t>
+          <t>이예령</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>류현승</t>
+          <t>설채환</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>백찬빈</t>
+          <t>정지원</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>임종원</t>
+          <t>정선우</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>엄채영</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>안가윤</t>
+          <t>이하은</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>박정욱</t>
+          <t>이원석</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>문재환</t>
+          <t>이서준</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>송재호</t>
+          <t>정현진</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>임채민</t>
+          <t>정현우</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>여수아</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>윤호성</t>
+          <t>이형우</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>성세경</t>
+          <t>이은재</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>박부승</t>
+          <t>임휘주</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>이예령</t>
+          <t>최무혁</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>정건</t>
+          <t>최대규</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>오름</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
           <t>임서진</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>손승현</t>
+          <t>임유빈</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>박지성</t>
+          <t>주영진</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>이원석</t>
+          <t>홍다윤</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>정선우</t>
+          <t>최성민</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>우지원</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>임휘주</t>
+          <t>임종원</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>신승원</t>
+          <t>채병현</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>설채환</t>
+          <t>최은성</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>이정우</t>
+          <t>홍윤민</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>최성민</t>
+          <t>홍석우</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>이서준</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>정현진</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>오종건</t>
+          <t>최수혁</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>정석원</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>이준영</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>최은우</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>이은재</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>조민선</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>유지원</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>정소원</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>이찬욱</t>
+          <t>추요한</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>홍석우</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>이종영</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>최무혁</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>이석인</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>정지원</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>전건우</t>
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>체육IV</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>홍윤민</t>
+          <t>1반</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>채병현</t>
+          <t>2반</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>3반</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>임유빈</t>
+          <t>4반</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>최수혁</t>
+          <t>5반</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>정현우</t>
+          <t>6반</t>
         </is>
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>강현아</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>최은성</t>
+          <t>공민준</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>강진필</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>황석희</t>
+          <t>강산원</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>최희준</t>
+          <t>김동민</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>최대규</t>
+          <t>김도형</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>김도경</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>김도이</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>권서겸</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>강태경</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>김세민</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>김영현</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>머신러닝과딥러닝</t>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>박민권</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>박부승</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>김민경</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>김성현</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>김준현</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>김의준</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1반</t>
+          <t>박지성</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>서진현</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>김승준</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>김세현</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>김찬울</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>류현승</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>강산원</t>
+          <t>박진성</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>양재욱</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>김승현</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>김지원</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>박정욱</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>문재환</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>강현아</t>
+          <t>여수아</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>엄채영</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>김윤중</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>김채훈</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>손승현</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>박민규</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>김성현</t>
+          <t>오동현</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>이서준</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>김지유</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>남은우</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>신승원</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>성세경</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>류현승</t>
+          <t>오정준</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>이종영</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>백찬빈</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>박재윤</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>이석인</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>송재호</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>박지성</t>
+          <t>오종건</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>이형우</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>오름</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>박진재</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>이연우</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>우지원</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>박진재</t>
+          <t>이찬욱</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>임서진</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>이은재</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>박채웅</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>이예령</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>유지원</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>서진현</t>
+          <t>임유빈</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>정선우</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>이지후</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>설채환</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>이정우</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>이원석</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>오정준</t>
+          <t>정건</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>정현우</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>최은우</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>안가윤</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>이하은</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>전건우</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>이원석</t>
+          <t>정석원</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>정현진</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>홍다윤</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>윤호성</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>임채민</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>최수혁</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>홍윤민</t>
+          <t>정소원</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>주영진</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>이준영</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>조민선</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>최은성</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>정지원</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>최성민</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>임종원</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>최대규</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>최희준</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>프로그래밍과문제해결</t>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>채병현</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>임휘주</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>황석희</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>추요한</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1반</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>강산원</t>
+          <t>홍석우</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>최무혁</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>홍윤민</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>강현아</t>
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>일반물리학I</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>김민경</t>
+          <t>1반</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2반</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>3반</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>4반</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>5반</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>김성현</t>
+          <t>김세민</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>김영현</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>강태경</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>김동민</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>강산원</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>김찬울</t>
+          <t>김승준</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>김준현</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>김성현</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>김세현</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>공민준</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
+          <t>김의준</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
           <t>류현승</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>박채웅</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>김찬울</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>김도형</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
+          <t>박정욱</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>문재환</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>설채환</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>박부승</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>김승현</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>박진재</t>
+          <t>엄채영</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>박재윤</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>우지원</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>손승현</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>김지원</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>서진현</t>
+          <t>이서준</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>박진성</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>이정우</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>신승원</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>남은우</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>양재욱</t>
+          <t>이석인</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>박진재</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>이준영</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>윤호성</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>박민규</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>오정준</t>
+          <t>이은재</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>안가윤</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>임채민</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>정석원</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>성세경</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>최무혁</t>
+          <t>이종영</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>오정준</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>전건우</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>정소원</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>양재욱</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
+          <t>주영진</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>이연우</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>정건</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>정지원</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>유지원</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>이하은</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>최은성</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>정현우</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>이원석</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>임휘주</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>추요한</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>정현진</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>채병현</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>조민선</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>홍윤민</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>최무혁</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>최수혁</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>최대규</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>홍다윤</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
           <t>최희준</t>
         </is>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>추요한</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>홍윤민</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="inlineStr">
-        <is>
-          <t>일반물리학실험I</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>1반</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2반</t>
-        </is>
-      </c>
-    </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>김준현</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>강산원</t>
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>머신러닝과딥러닝</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>류현승</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>강태경</t>
+          <t>1반</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>박민규</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>공민준</t>
+          <t>강산원</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>박부승</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>김동민</t>
+          <t>강현아</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>박진성</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>김승준</t>
+          <t>김성현</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>박채웅</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>김영현</t>
+          <t>류현승</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>설채환</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>김지원</t>
+          <t>박지성</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>이석인</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>문재환</t>
+          <t>박진재</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>이준영</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>성세경</t>
+          <t>서진현</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>정건</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>손승현</t>
+          <t>오정준</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>정석원</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>신승원</t>
+          <t>이원석</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>정현진</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>이연우</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>주영진</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>이원석</t>
+          <t>홍윤민</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>채병현</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>이정우</t>
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>경제</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>추요한</t>
+          <t>1반</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>조민선</t>
+          <t>2반</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>3반</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>4반</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>5반</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>6반</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>홍다윤</t>
+          <t>김도이</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>최은성</t>
+          <t>강산원</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>김동민</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>강태경</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>강진필</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>공민준</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>김성현</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>김세현</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>김민경</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>강현아</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>김지유</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>권서겸</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="inlineStr">
-        <is>
-          <t>한국의전통과학</t>
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>김승현</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>김지원</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>김준현</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>김도경</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>백찬빈</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>김도형</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1반</t>
+          <t>박재윤</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2반</t>
+          <t>김찬울</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>3반</t>
+          <t>류현승</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>김의준</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>설채환</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>김세민</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>강진필</t>
+          <t>송재호</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>강산원</t>
+          <t>김채훈</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>공민준</t>
+          <t>문재환</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>박정욱</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>안가윤</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>김승준</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>김도이</t>
+          <t>신승원</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>권서겸</t>
+          <t>남은우</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>김도형</t>
+          <t>박부승</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>서진현</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>여수아</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>김영현</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>송재호</t>
+          <t>오름</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>김동민</t>
+          <t>박민권</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
+        <is>
+          <t>박진재</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>양재욱</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>우지원</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
         <is>
           <t>김윤중</t>
         </is>
@@ -5097,15 +4957,30 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>신승원</t>
+          <t>오정준</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>김지원</t>
+          <t>박민규</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
+        <is>
+          <t>손승현</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>엄채영</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>이석인</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
         <is>
           <t>박지성</t>
         </is>
@@ -5114,135 +4989,260 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>오정준</t>
+          <t>이서준</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>박재윤</t>
+          <t>오동현</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>안가윤</t>
+          <t>이연우</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>유지원</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>이은재</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>박진성</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>오종건</t>
+          <t>이종영</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>성세경</t>
+          <t>윤호성</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>여수아</t>
+          <t>이준영</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>이예령</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>정현우</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>박채웅</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>우지원</t>
+          <t>이지후</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>오름</t>
+          <t>정석원</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>윤호성</t>
+          <t>이하은</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>이정우</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>정현진</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>성세경</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>이정우</t>
+          <t>이찬욱</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>이석인</t>
+          <t>정소원</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>이지후</t>
+          <t>이형우</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>임유빈</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>최은성</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>오종건</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>홍다윤</t>
+          <t>임서진</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>이종영</t>
+          <t>정지원</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>임서진</t>
+          <t>임종원</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>전건우</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>추요한</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>이원석</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
+          <t>임휘주</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>채병현</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>임채민</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>정선우</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>홍다윤</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>조민선</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>정건</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>최무혁</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>최성민</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>최대규</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>주영진</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>최은우</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>최수혁</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>홍석우</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>황석희</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
           <t>홍윤민</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>정현우</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>정현진</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="B218" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>최희준</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>조민선</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>최은우</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>홍석우</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>일반생명과학실험I</t>
+          <t>일반생명과학I</t>
         </is>
       </c>
     </row>
@@ -5252,10 +5252,20 @@
           <t>1반</t>
         </is>
       </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2반</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
+          <t>권서겸</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
           <t>강진필</t>
         </is>
       </c>
@@ -5263,558 +5273,548 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>권서겸</t>
+          <t>김도경</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>김민경</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>김도경</t>
+          <t>김도이</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>김윤중</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>김민경</t>
+          <t>김채훈</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>김지유</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>김지유</t>
+          <t>박민권</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>박지성</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>김채훈</t>
+          <t>안가윤</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>백찬빈</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>박지성</t>
+          <t>오동현</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>송재호</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>안가윤</t>
+          <t>오름</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>여수아</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>여수아</t>
+          <t>오종건</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>이원석</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>오동현</t>
+          <t>이예령</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>이은재</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>오종건</t>
+          <t>이종영</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>이지후</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>이종영</t>
+          <t>이형우</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>이찬욱</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>이지후</t>
+          <t>임서진</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>최은우</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>이형우</t>
+          <t>임유빈</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>홍석우</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>임서진</t>
+          <t>임종원</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>임유빈</t>
+          <t>정선우</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>임종원</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>정선우</t>
+          <t>최성민</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>최은우</t>
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>소프트웨어를활용한수학</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>홍석우</t>
+          <t>1반</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>강진필</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="inlineStr">
-        <is>
-          <t>천문학및실습</t>
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>공민준</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>1반</t>
+          <t>김의준</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>강진필</t>
+          <t>박채웅</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>김도경</t>
+          <t>백찬빈</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>김동민</t>
+          <t>양재욱</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>김지유</t>
+          <t>우지원</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>문재환</t>
+          <t>이서준</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>박진성</t>
+          <t>이은재</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>박채웅</t>
+          <t>이정우</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>설채환</t>
+          <t>정현우</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>성세경</t>
+          <t>최은성</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>우지원</t>
+          <t>홍다윤</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>정석원</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>최은성</t>
+          <t>황석희</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>황석희</t>
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>천문학및실습</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>1반</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="inlineStr">
-        <is>
-          <t>일반생명과학I</t>
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>강진필</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>1반</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>2반</t>
+          <t>김도경</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>권서겸</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>강진필</t>
+          <t>김동민</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>김도경</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>김민경</t>
+          <t>김지유</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>김도이</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>김윤중</t>
+          <t>문재환</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>김채훈</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>김지유</t>
+          <t>박진성</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>박민권</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>박지성</t>
+          <t>박채웅</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>안가윤</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>백찬빈</t>
+          <t>설채환</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>오동현</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>송재호</t>
+          <t>성세경</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>오름</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>여수아</t>
+          <t>우지원</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>오종건</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>이원석</t>
+          <t>정석원</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>이예령</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>이은재</t>
+          <t>최은성</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>이종영</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>이지후</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>이형우</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>이찬욱</t>
+          <t>황석희</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>임서진</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>최은우</t>
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>일반생명과학실험I</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>임유빈</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>홍석우</t>
+          <t>1반</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>임종원</t>
+          <t>강진필</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>정선우</t>
+          <t>권서겸</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>최성민</t>
+          <t>김도경</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>김민경</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="1" t="inlineStr">
-        <is>
-          <t>소프트웨어를활용한수학</t>
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>김지유</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>1반</t>
+          <t>김채훈</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>강진필</t>
+          <t>박지성</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>공민준</t>
+          <t>안가윤</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>김의준</t>
+          <t>여수아</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>박채웅</t>
+          <t>오동현</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>백찬빈</t>
+          <t>오종건</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>양재욱</t>
+          <t>이종영</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>우지원</t>
+          <t>이지후</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>이서준</t>
+          <t>이형우</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>이은재</t>
+          <t>임서진</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>이정우</t>
+          <t>임유빈</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>정현우</t>
+          <t>임종원</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>최은성</t>
+          <t>정선우</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>홍다윤</t>
+          <t>최은우</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>황석희</t>
+          <t>홍석우</t>
         </is>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>일반화학I</t>
+          <t>선형대수학</t>
         </is>
       </c>
     </row>
@@ -6008,7 +6008,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>김의준</t>
+          <t>강현아</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -6018,617 +6018,617 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>강현아</t>
+          <t>김민경</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>김도이</t>
+          <t>공민준</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>김채훈</t>
+          <t>김동민</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>박재윤</t>
+          <t>김영현</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>권서겸</t>
+          <t>김성현</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>김도형</t>
+          <t>김세현</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>박민권</t>
+          <t>김의준</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>백찬빈</t>
+          <t>문재환</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>김도경</t>
+          <t>김승현</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>김세민</t>
+          <t>김승준</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>박정욱</t>
+          <t>김찬울</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>설채환</t>
+          <t>성세경</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>김세현</t>
+          <t>김준현</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>김승현</t>
+          <t>박부승</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>송재호</t>
+          <t>박진성</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>오동현</t>
+          <t>양재욱</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>김윤중</t>
+          <t>김지원</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>김영현</t>
+          <t>손승현</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>유지원</t>
+          <t>박채웅</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>이예령</t>
+          <t>엄채영</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>김지유</t>
+          <t>박민규</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>남은우</t>
+          <t>신승원</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
+          <t>우지원</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>이서준</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>이석인</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
           <t>이연우</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>이지후</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>박지성</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>박민규</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>이정우</t>
+          <t>윤호성</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>이찬욱</t>
+          <t>이원석</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>서진현</t>
+          <t>이준영</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>오종건</t>
+          <t>이하은</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>이하은</t>
+          <t>정현진</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>임유빈</t>
+          <t>이은재</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>여수아</t>
+          <t>이형우</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>이서준</t>
+          <t>정건</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>임휘주</t>
+          <t>조민선</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>전건우</t>
+          <t>임채민</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>오름</t>
+          <t>임서진</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>이준영</t>
+          <t>정석원</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>정선우</t>
+          <t>최무혁</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>정건</t>
+          <t>임휘주</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>정석원</t>
+          <t>최수혁</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>이형우</t>
+          <t>정소원</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>홍석우</t>
+          <t>최은성</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>최대규</t>
+          <t>전건우</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>정소원</t>
+          <t>최희준</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>임종원</t>
+          <t>정지원</t>
         </is>
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>황석희</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>최은우</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>정지원</t>
+          <t>정현우</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>채병현</t>
+          <t>주영진</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>황석희</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>정현우</t>
+          <t>최대규</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>최성민</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>최수혁</t>
+          <t>홍다윤</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>일반화학I</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="1" t="inlineStr">
-        <is>
-          <t>선형대수학</t>
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>1반</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>2반</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>3반</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>4반</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>1반</t>
+          <t>김의준</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2반</t>
+          <t>강태경</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>3반</t>
+          <t>강현아</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>4반</t>
+          <t>김도이</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>강현아</t>
+          <t>김채훈</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>강태경</t>
+          <t>박재윤</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>김민경</t>
+          <t>권서겸</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>공민준</t>
+          <t>김도형</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>김동민</t>
+          <t>박민권</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>김영현</t>
+          <t>백찬빈</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>김성현</t>
+          <t>김도경</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>김세현</t>
+          <t>김세민</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>김의준</t>
+          <t>박정욱</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>문재환</t>
+          <t>설채환</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
+          <t>김세현</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
           <t>김승현</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>김승준</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>김찬울</t>
+          <t>송재호</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>성세경</t>
+          <t>오동현</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>김준현</t>
+          <t>김윤중</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>박부승</t>
+          <t>김영현</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>박진성</t>
+          <t>유지원</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>양재욱</t>
+          <t>이예령</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>김지원</t>
+          <t>김지유</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>손승현</t>
+          <t>남은우</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>박채웅</t>
+          <t>이연우</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>엄채영</t>
+          <t>이지후</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
+          <t>박지성</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
           <t>박민규</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>신승원</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>우지원</t>
+          <t>이정우</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>이서준</t>
+          <t>이찬욱</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>이석인</t>
+          <t>서진현</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>이연우</t>
+          <t>오종건</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>윤호성</t>
+          <t>이하은</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>이원석</t>
+          <t>임유빈</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>이준영</t>
+          <t>여수아</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>이하은</t>
+          <t>이서준</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>정현진</t>
+          <t>임휘주</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>이은재</t>
+          <t>전건우</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>이형우</t>
+          <t>오름</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>정건</t>
+          <t>이준영</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>조민선</t>
+          <t>정선우</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>임채민</t>
+          <t>정건</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>임서진</t>
+          <t>정석원</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>정석원</t>
+          <t>이형우</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>최무혁</t>
+          <t>홍석우</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>임휘주</t>
+          <t>최대규</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
+          <t>정소원</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>임종원</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>최은우</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>정지원</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>채병현</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>황석희</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>정현우</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>최성민</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="D346" t="inlineStr">
+        <is>
           <t>최수혁</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>정소원</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>최은성</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>전건우</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>최희준</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>정지원</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>황석희</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>정현우</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>주영진</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>최대규</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>홍다윤</t>
         </is>
       </c>
     </row>
@@ -7478,7 +7478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7493,16 +7493,12 @@
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>54시수</t>
+          <t>31시수</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -7514,7 +7510,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>52시수</t>
+          <t>29시수</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7531,63 +7527,58 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>46시수</t>
+          <t>27시수</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>정지원 &amp; 정석원</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>정석원 &amp; 정소원</t>
+          <t>이지후 &amp; 최은우</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>44시수</t>
+          <t>26시수</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>정석원 &amp; 김세현</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>정석원 &amp; 박부승</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>손승현 &amp; 신승원</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>최무혁 &amp; 윤호성</t>
+          <t>전건우 &amp; 최대규</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>42시수</t>
+          <t>23시수</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>정현진 &amp; 윤호성</t>
+          <t>여수아 &amp; 김지유</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>정지원 &amp; 정석원</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>홍윤민 &amp; 오정준</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>정석원 &amp; 정소원</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>41시수</t>
+          <t>22시수</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7597,347 +7588,81 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>전건우 &amp; 최대규</t>
+          <t>최은성 &amp; 우지원</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>김승현 &amp; 박민규</t>
+          <t>손승현 &amp; 신승원</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>설채환 &amp; 강태경</t>
+          <t>강진필 &amp; 김지유</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>이연우 &amp; 이하은</t>
+          <t>오정준 &amp; 박진재</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>이지후 &amp; 최은우</t>
+          <t>정석원 &amp; 박부승</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>최무혁 &amp; 윤호성</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>40시수</t>
+          <t>21시수</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>정현진 &amp; 최무혁</t>
+          <t>정석원 &amp; 김세현</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>박재윤 &amp; 이찬욱</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>이연우 &amp; 이하은</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>38시수</t>
+          <t>20시수</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>김영현 &amp; 문재환</t>
+          <t>이준영 &amp; 박민규</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>이준영 &amp; 박민규</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>37시수</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>여수아 &amp; 김지유</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>김영현 &amp; 임휘주</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>최은성 &amp; 우지원</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>류현승 &amp; 문재환</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>오정준 &amp; 박진재</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>김찬울 &amp; 최무혁</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>36시수</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>김승현 &amp; 최수혁</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>김찬울 &amp; 김동민</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>최수혁 &amp; 최희준</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>김지원 &amp; 박민규</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>35시수</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>성세경 &amp; 이원석</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>김찬울 &amp; 윤호성</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>34시수</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>정소원 &amp; 박부승</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>최희준 &amp; 김지원</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>김도형 &amp; 유지원</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>최은성 &amp; 박채웅</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>김세현 &amp; 박부승</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>이은재 &amp; 엄채영</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>정지원 &amp; 박부승</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>33시수</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>김영현 &amp; 강태경</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>이준영 &amp; 김준현</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>박재윤 &amp; 최대규</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>김승현 &amp; 김지원</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>32시수</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>최수혁 &amp; 채병현</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>박재윤 &amp; 이찬욱</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>김찬울 &amp; 정현진</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>강진필 &amp; 김지유</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>31시수</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>전건우 &amp; 강태경</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>최수혁 &amp; 박민규</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>박정욱 &amp; 김세민</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>정현진 &amp; 윤호성</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>김도형 &amp; 김세민</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>홍다윤 &amp; 박부승</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>김승현 &amp; 이준영</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>정현진 &amp; 박부승</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>이서준 &amp; 이은재</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>김찬울 &amp; 조민선</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>30시수</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>박정욱 &amp; 유지원</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>홍석우 &amp; 정선우</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>정석원 &amp; 윤호성</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>손승현 &amp; 이연우</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>홍윤민 &amp; 오정준</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>홍윤민 &amp; 김성현</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>홍윤민 &amp; 정건</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>강산원 &amp; 남은우</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>김준현 &amp; 박민규</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>박진성 &amp; 박채웅</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>정석원 &amp; 홍다윤</t>
         </is>
       </c>
     </row>
